--- a/xl/solved-sample.xlsx
+++ b/xl/solved-sample.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,12 +374,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>CATEGORY_real</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CATEGORY</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>UID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CATEGORY</t>
         </is>
       </c>
     </row>
@@ -391,828 +396,1887 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hiknrf9kho4e3gqgq1mo6142a69p843bah5f349ngoe5lrjeif</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nknq041mc316ge35jn1bjgb7a49doos66k2j91lh1os6ecooem</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/7536117/2018/11/12/07b68d02-2c98-4b72-9774-b153f712b7821542017463046-2GO-Unisex-Navy-Blue-Solid-Bomber-771542017461162-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/8774503/2019/4/25/15ffdba7-962a-443e-b8b9-43c37a5c449e1556186303980-UNDER-ARMOUR-Men-Grey-Melange-Hooded-Be-Seen-Terry-Graphic-S-1.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>qam34egb8cbbrkihc46kprb6r07p0fq84ijep9185dcfmco8sh</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jackets</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ldeeae389a3qr2212fjbli21b0hq11ldi1npm467lfpdik56be</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1726590/2017/2/9/11486629740720-2GO-Navy-Sporty-Jacket-3491486629740520-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2187489/2017/10/28/11509177033065-Nike-Men-Shorts-1251509177032930-1.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>g0dprl7hdmh11k92rk7845lcradf67gm723onok1qn4a2m3cig</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69fq3ndb8rieng0i4e68rr1n8iaa9shjjgljj4pc9rhgj8bofg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1868217/2018/12/3/1cefb3f5-71ca-417c-a918-1487108543fd1543820389870-HRX-by-Hrithik-Roshan-Men-Navy-Blue-Solid-Sporty-Jacket-5321543820388702-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/3/7/aafc8f60-a930-4909-aa14-fd25ee175b681551957197151-1.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>89pkgd829ch5345ag0j6mmq52420lhrbdqoa9b76o358fr7k0r</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ljan3f936lglpk67k7pbh1fdqpa9go36oifna1120q2jd20hri</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/2314454/2018/4/10/11523360557455-HRX-by-Hrithik-Roshan-Men-Tshirts-1381523360557303-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2176644/2017/11/6/11509950823510-TRACK-SUIT-with-High-Neck-and-Solid-Colour-7961509950823347-1.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mb5khoqfgmo642nhp77m09jas1048eh260f9b5hr1skdbo9q19</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>j2m89sr5es01b41cgq3497bpn04q8mgej685sgidm9ja9j6a5o</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/2314457/2018/4/24/11524547946133-HRX-by-Hrithik-Roshan-Men-Black-Printed-Round-Neck-T-shirt-8401524547945966-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9642899/2019/5/22/d68bb1fc-3131-4436-b72f-2ca6c4a5315f1558504457817-Puma-Unisex-Blue-Printed-one8-Victory-Mandarin-Collar-T-shir-1.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>od2prqielfrbqr0gipfjdpq8e8nc5mf9obdmsjd6e55pjb7jg5</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jackets</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cpg58p483co7k0mnfjkk2groi31eqrdfca4i0k8pp0s2beoa2s</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1868206/2017/10/3/11507014181810-HRX-by-Hrithik-Roshan-Men-Black-Solid-Open-Front-Jacket-6981507014181603-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2531727/2018/3/9/11520580038728-The-Chennai-Silks-Classicate-Men-White-Solid-Dhoti-4991520580038570-1.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hlk432djbg67qh7j210kn702bmnimn33m9qnf35fkgeg80rb41</t>
+          <t>Ethnic wear</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>b7214oh6n7c6b714o0ib63k4990dmshirik6fcchgj05eobsdb</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/8774531/2019/4/25/89e276d5-6d4d-4328-8a5c-c6d9dc34443b1556196494012-UNDER-ARMOUR-Black-ColdGear-Reactor-Hybrid-Quilted-Jacket-47-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/3/12/34b2c0ce-f756-482c-a4f6-fce86f94213f1552381057715-1.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09osdojjae2daml4gdl0pgqparbknc2l3aslp29q1rpl5jclf4</t>
+          <t>Ethnic wear</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>m391aia3n5744fneqepkpmaepk3l6n91p366ldapqaqc0151oh</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/7748839/2019/6/15/8d158cc4-10d6-42bb-be89-a781752fe1781560583394337-Puma-Men-Jackets-4761560583392983-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/2/20/2ba8e143-a23d-4c16-b564-84521416c0ca1550638752069-1.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>c28qdj5n50jn68fg0glsaj0sg5nnho95fhgdk4meob2g240l5f</t>
+          <t>Ethnic wear</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Plus Size</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>hrkh4i8ggnb7c363i9h2248fc1lfch1dacm37biimg68aile6s</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/6814130/2018/7/17/e039357f-95a1-467e-a10d-9130f11e233b1531821445326-Nike-Grey-AS-M-NK-DRY-JKT-TEAM-WOVEN-Sporty-Jacket-152153182-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/3/8/fb1a3c79-ca11-4cb0-9ea1-108bed878d4d1552036800682-1.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gaqb024nd1dd93seh3ls1a8hs69oq0cfalj82ck74ogeij255r</t>
+          <t>Ethnic wear</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jackets</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62666mka977mlfp8lh137qh5kerabl1l5rsf764h4frr4oik7s</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1868223/2017/9/20/11505900626107-HRX-by-Hrithik-Roshan-Men-Off-White-Solid-Open-Front-Jacket-141505900625804-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9866707/2019/6/14/b7eea9c6-361f-4a00-a1ec-98bfb09c74bf1560488090596-Jockey-Men-Boxers-4081560488089162-1.jpg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nsp1i4adfrpqd03d2h6opc4ei4q39808b8ipd07hi1f1d6m6qr</t>
+          <t>Innerwear &amp; Sleepwear</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Innerwear &amp; Sleepwear</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2dbps6ma49ekacmompmla99hrmpokjh6crcn8b153630qqqp57</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/9279755/2019/6/8/7f4c2ce5-6b3e-4001-9035-15f40effbda21559970484955-HRX-by-Hrithik-Roshan-Men-Jackets-4811559970483154-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/10019269/2019/6/12/3bb9b41b-8257-4193-8ff0-2318cf52097d1560337982762-XYXX-MENS-MICRO-MODAL-BRIEFPACK-OF-3-1241560337980788-1.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bc77dplsri5i4nqas3dghpjdlidq4r8seh80hfql78np7msk3i</t>
+          <t>Innerwear &amp; Sleepwear</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Outerwear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>pda4i05c8lc8l71120dll1s6bd85kgeo32cbn80f56cp1an7j6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/6813993/2018/7/17/df19920a-13d3-44a7-8e2f-e4bdb9262c4e1531820556769-Nike-Grey-AS-TS-CRKT-M-NK-DRY-JKT-FZ2-Sporty-Jacket-65615318-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2398928/2018/1/17/11516171337029-NEVA-Off-White-Thermal-Top-9931516171336916-1.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>c182sbcar6k9ani9045lia2idfm5ckfjb9lnd8lq4oh7fd8khj</t>
+          <t>Innerwear &amp; Sleepwear</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>l5nak7drkroh53h5dqqom3f1aradr6r32pi4a0dg2337pq65sg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/productimage/2019/5/22/675b9c77-9a44-4b5a-b49e-c131955d9f6f1558467113015-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/1935578/2017/5/30/11496145611543-Force-Go-Wear-Men-Innerwear-Vests-2911496145611191-1.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kmjf5m304l480nsdcec8k0k5q8nm9qsfe67hlo52mjoo3s1eca</t>
+          <t>Innerwear &amp; Sleepwear</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Outerwear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>odm55nombbof3jq59p3j6r3mbq3rqmqmmhg68c1mnkqa9ja80p</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1868246/2017/10/25/11508911098449-HRX-by-Hrithik-Roshan-Men-Off-White-Solid-Sporty-Jacket-9701508911098165-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9593761/2019/5/24/d84e5026-59f4-4e22-817a-7ac6b96777041558688370858-Sweet-Dreams-Men-Lounge-Shorts-5581558688369511-1.jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>d2ac6rcar7obsmskefhp468djn953bppbqfamlh27jh633njjm</t>
+          <t>Innerwear &amp; Sleepwear</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Bottomwear</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>r0oi5offnknpcdhkrmomeo920h5f83661kiocqshd7eo1ngkq9</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/8749055/2019/4/8/31635739-32a1-4b7a-93a7-8021c4bac96d1554727629830-Puma-Men-Black-VK-Sweat-Sporty-Jacket-5991554727628462-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/1727861/2017/1/18/11484736092003-Shaftesbury-London-Men-Blazers-5241484736091725-1.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>s8j9ssm52hgl0ml41efac7gm7o71d0ck8b2kkbbp53nsfkl1s1</t>
+          <t>Jackets</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Jumpsuits &amp; Playsuits</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>s5jihjb47h8lknes9hnagj8lgsgq0e5a6sds69a7l85hq98fc8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1868248/2017/12/5/11512452186954-HRX-by-Hrithik-Roshan-Men-White-Solid-Padded-Jacket-5701512452186844-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/4923944/2018/11/2/b0e1a9e4-12a2-48d8-87f5-5e0e10e5f2a51541159298909-HRX-by-Hrithik-Roshan-Men-Black-Solid-Sporty-Jacket-2921541159298787-1.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>n391e05oj55040aa1leehfm34jra881ss46fr95r47q29gdg0h</t>
+          <t>Jackets</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Shorts</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>khikgaheqhfln4l4e41adskar3ecs2koc3rod0237ngna9mnh6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/productimage/2018/12/14/97df6d30-a3c0-48f1-9013-fc460f56199b1544792941322-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9591503/2019/5/28/40427abc-65b3-496e-ac9d-359f74b539121559038997555-Calvin-Klein-Jeans-Men-Blue-Slim-Fit-Mid-Rise-Clean-Look-Str-1.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>c62ncqffapi7bq0q639ldhn2or27rmipbal43irjcl1qo10sc6</t>
+          <t>Jeans</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n59lai0hqnmjf9difop2lbhoi1a52039qnepfg57mprgj7nloc</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/6936213/2018/11/22/7fcbe807-3be2-40ac-944e-687b839bf1b81542886751670-Puma-Navy-Blue-Evostripe-Jacket-3981542886751471-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/7760776/2019/7/16/ba43eef1-1c58-471b-a5c0-53a7ec9b2df21563255175671-Tommy-Hilfiger-Men-Black-Solid-Pullover-6461563255173851-1.jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ppcpk87f69a7mhho54ain29o0hhio79o7jigiigc8rrfm8fq69</t>
+          <t>Outerwear</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Jackets</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>a6b2biq3f3jea1c3e4i32pmdnkdenrmm7sm28jdk494drijbrm</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/7116709/2018/8/25/0e296c29-7979-4cf1-9526-79f75f1359641535180758852-2GO-Men-Blue-Solid-Sporty-Running-Jacket-9611535180758612-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/6838353/2019/1/23/efe63dd2-f13a-4fcb-93f3-fd66fd448e641548246429933-Kook-N-Keech-Marvel-Men-Black-Solid-Hooded-Sweatshirt-886154-1.jpg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>68mn3bo71hm4rj3d747mlp07jf2bopg6o1oqq23j7c1lsbki30</t>
+          <t>Outerwear</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Jackets</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4hp74hlgmmkq95m1jdq9fd4753ej29koroh96lp5ipq3pqba41</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/4453326/2018/11/6/c4779c3c-e64a-4719-8181-b1b76f237ac81541497616372-HRX-by-Hrithik-Roshan-Men-Black-Solid-Bomber-3811541497616174-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/8275541/2019/2/7/c2abce46-02ca-4d0d-bee7-752101445e7c1549534345247-Scotch--Soda-Men-Navy-Blue-Stuart-Slim-Fit-Printed-Chinos-51-1.jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n5b8rjqejg6245h8o42dg2f6162b6r30iokrhhqip0lh1m1r75</t>
+          <t>Pants</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>b5nqlnfm0f3qjd1qb7rsq9fa1ac4hpedmd9n6j4apqipes9kkm</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/8696721/2019/3/11/21a1108a-528f-4dbe-91fb-8155f1660a091552295888584-Columbia-Men-Olive-Green-Solid-Silver-Ridge-II-Tailored-Jack-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/1967493/2017/6/16/11497604503575-Van-Heusen-Men-Trousers-341497604503387-1.jpg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>d2af40m6af6s8cg0mgal05olmbe06peao7l2aeecsgq0ei57ni</t>
+          <t>Pants</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>04ae9ki7if63ap8c1gmijd2dc5fkg7dqlrnqckrre96rcl48m8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/9720641/2019/5/24/85b15c97-253d-48f2-99f8-26c9f05a36291558688771802-ADIDAS-Men-Jackets-9641558688769889-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/6826651/2018/9/20/f392c1d5-de76-4866-ae71-48dab092e05c1537441178343-Sztori-Men-Jackets-2061537441177111-1.jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4s35b3lr6232l8js47oc8ci490jpcdnkn21b6kdsmog13rkpo6</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jackets</t>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>fs8kddii38nclnmfgngdg1jnshca8hdp6n62313m6flh8gbggr</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1986266/2017/8/17/11502974371996-2GO-Men-Blue-Solid-Sporty-Jacket-8431502974371796-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9929785/2019/7/24/6709b5af-6cc5-4282-a2e4-42583b5aa7011563966546540-Sztori-Men-Black-Regular-Fit-Mid-Rise-Clean-Look-Stretchable-1.jpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>oad5hmpffmpa683jeqn35a9i9sbdnb7mjlgerhfe6jfrbj6esj</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1imafrd4i54g09rqrj1f5q4gf5ml81s2kakse0sn3e13o8pbal</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/7596960/2018/10/11/64ec05b0-1b61-470a-b5f8-9742fbb8f4761539242287284-Campus-Sutra-Men-Black-Solid-Lightweight-Sporty-Jacket-881539242287092-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9016441/2019/6/17/44d2d706-4e81-4f66-80b9-3a4faf6756961560757902776-Sztori-Men-Shirts-5481560757902022-1.jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>h1iq6ojeplbm1jp5b3eksfik3npnmh4p1qpf39or58sq9aarrg</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Outerwear</t>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4fqonm1h559pmiqmp6k8psp816lr71k34p3e5c4dc3pklrcmp6</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/productimage/2018/12/18/dfeae914-ae69-434a-8f37-b79c2b9bc9c71545123363753-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9084139/2019/7/24/a064668b-a3fe-4b29-a26c-afd5785327bd1563958967490-Sztori-Men-Black-Solid-Regular-Fit-Shorts-8701563958965845-1.jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8fpfaggire9lld2msqemihd8ac885o0bgk5q43o70bnesq81r3</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6ppl9fr878nm6mrk9aqbpjdensq319l7j1jh8cecm6m9rq7n4a</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/2170644/2017/11/16/11510815642860-HRX-by-Hrithik-Roshan-Men-Jackets-2831510815642663-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/6826652/2019/3/11/cc084f46-2f50-41db-984f-3d995f3527cf1552295334381-Sztori-Men-Blue-Solid-Sweater-5681552295333123-1.jpg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8pcdm2dads4lpfmeimalldlisfm666egai5ormq81n7p3q27rs</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>h1le31pjnqre4n03bf0b9sbcpsrcopgijlbfp0gan4s43lqfap</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/8475753/2019/3/12/5efae9d6-a8d2-46ef-ab09-3c82e070bb8b1552393873036-HRX-by-Hrithik-Roshan-Men-Olive-Green-Solid-Sporty-Jacket-93-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/6827841/2018/10/23/015429dd-26a9-402e-8733-1366afe7dbb81540295549680-Sztori-Men-Navy-Blue-Self-Striped-Sweatshirt-4351540295549440-1.jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>e333f5oegb3fkf65frgq63m4nk8b3jmohaqobqnbsaa469c0g3</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>mkn67i4a36h56i9e9mar8rf4gj7eiesp9j7nhmbn34pm16am9m</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/4453315/2018/10/29/a43f0447-b042-4ebd-9ad9-302958d772501540801810539-HRX-by-Hrithik-Roshan-Men-Olive-Green-Solid-Bomber-9011540801810355-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9299887/2019/6/17/0e1f410b-3123-4c73-bbef-48ca686664071560760350746-Sztori-Men-Track-Pants-2421560760349510-1.jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>g6be6j7l2mf4gl9b5ag77hk5gaed0ij27ok98l36h360jrlfpi</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>p1f5823bs325caqmj6ioeorkcms1p96rhlq41ia34c4757ddbj</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/8748871/2019/4/8/309f136b-b834-49f3-83fb-642cee3aade11554723916003-Puma-Men-Navy-Blue--White-Colourblocked-BMW-MMS-T7-Sporty-Ja-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/8513933/2019/7/24/5add3603-77bc-45ba-82fd-0661bbf1a9681563955883357-Sztori-Men-Trousers-9181563955881434-1.jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pek4j18oqr8pibmrf0fc7omrlbesq3jljs460kq0c2od4k1m5m</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Outerwear</t>
+          <t>Suits</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7r7rli4k6bmsi1cmdhdf2pbm9ld7k8nsnkge4gb0es9qq71337</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/10139159/2019/7/12/e18e4600-561c-431b-8ccb-bae07e3e29c41562930811802-Nike-Sportswear-N98-3881562930810719-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/8805681/2019/6/6/dddc7069-4540-4719-b195-194bbc84c73e1559805824668-Sztori-Men-Tshirts-4451559805823543-1.jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ghk0q2qi4ilr2703qoihqq184olpg9dec442k5g2o6p8rkscr8</t>
+          <t>Plus Size</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>e2osgjrsm4kreg88q2cbbs335mlr7efl66hmrd87oiag7m7i5l</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/4453320/2018/10/30/926dae92-e94c-42ff-b3ba-5b13df8130391540884356035-HRX-by-Hrithik-Roshan-Men-Olive-Green-Solid-Bomber-441154088-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2284523/2018/2/15/11518684805969-Roadster-Men-Navy-Blue--Green-Regular-Fit-Checked-Casual-Shirt-4471518684805162-1.jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>rkgbcq1qs2f3sbs385mkqfin828qnjsblsdmmdg0104rhl9k7i</t>
+          <t>Shirts</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>d5faib6lofk28cobg28a65n6hb0n61fsbd994lknh52d5c5ddg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1868250/2017/12/5/11512452195192-HRX-by-Hrithik-Roshan-Men-Black-Solid-Sporty-Jacket-5891512452195072-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9462675/2019/6/10/18248c5f-79fd-4d1e-a1b2-4f662a61d7f81560154238602-US-Polo-Assn-Men-Blue--White-Regular-Fit-Printed-Casual-Shir-1.jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>irbogg5qsn47ssm00cokigk6pkfmeqf6per3oh8rrj0qq212ds</t>
+          <t>Shirts</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Jeans</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>pibcse80fq9q3e7mm8dj1ph0bq3162oacghnn30a3c959ib7f0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/productimage/2018/12/14/4f12e812-ec22-44e3-a46c-c8422b9392f21544792968002-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/productimage/2018/12/7/8f609e8f-7ffe-497c-b2d0-7e1deda173af1544130544133-1.jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dm4b0ma1prr1l81snmo15gspjbi5ieeaoddl45sacjp817j4l4</t>
+          <t>Shorts</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Pants</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>m4m89eiae3qpi085pj5q84854b5bem1qqjfbl6o2ffmjacrflp</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1187090/2017/1/16/11484544478392-Columbia-Black-Ascender-Softshell-Jacket-2901484544478377-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/4323384/2018/3/21/11521618931832-Raymond-Men-Black-Single-Breasted-Tailored-Fit-Formal-Suit-2431521618931675-1.jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mmr4gfqng7s4dljoie9g5r98gi1g40fonjh515sbkqmm7ocd22</t>
+          <t>Suits</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Shorts</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>02jhk1p6oo9ll895j5g0qf2d7odje7aok9ncs85dig3947rjem</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/2170645/2017/12/4/11512373051419-HRX-by-Hrithik-Roshan-Men-Blue-Solid-Sporty-Jacket-5091512373051167-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9956473/2019/8/5/0a65d17b-015a-4ba9-ae14-da1bce3dc8491565000627342-Kappa-Men-Black-Solid-Swim-Bottoms-8903732957135-94515650006-1.jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4e4l9ba3n105n001nj4na0k7089ba455kgob7cbppkpc69s8sj</t>
+          <t>Swimwear</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Plus Size</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>lgec8e7mgk093nde3qesr721ka6hrsd072jrdncl1hmlohaor4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/7484276/2018/9/25/f86bac43-9102-4116-b2dd-c167e10dd6f11537875897246-Campus-Sutra-Men-Hooded-Sports-Jacket-7751537875897067-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/6971306/2018/12/1/c2757353-0eaa-480f-811d-1f5b728acdb61543656022309-Superdry-Men-Blue-Printed-Round-Neck-T-shirt-7221543656021365-1.jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>h5igcshd7p0o6rp0e9rebf8b24daa13pn7pj1sdcam2h95dcoq</t>
+          <t>Tshirts</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jackets</t>
+          <t>Bottomwear</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>km6ckhhqmfbdfl7sje79nspgmkhgsrcfo4cgki0ej7kks1snkk</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/10139351/2019/7/12/a5f95647-1379-42b7-ad8c-5961df85c1901562924829486-Nike-Essential-6911562924828072-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2528634/2018/12/12/344e2e58-e0db-4f0c-ac4b-38cd1b0bf2431544605184731-HRX-by-Hrithik-Roshan-Women-Blue-Solid-Regular-Fit-Sports-Sh-1.jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>979m0lne9f5c10kp10n2bp9q93aqhrqqag5oqjl9di5ne2cms4</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Shirts</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>r5camlbclpeobsaf21c93r403kfphd4h2l5adj335qpk594nmi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/10139251/2019/7/12/bb8c4e41-cb60-4ced-8526-968249d6d0891562924756153-AS-TS-CRKT-M-NK-DRY-JKT-K-FZ-5711562924754056-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2386981/2018/2/6/11517895149235-2GO-Green-Skorts-8751517895149096-1.jpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>in0dlij7n9jnjgsqndncb6gos07rnnnagg2dfcor10dp86ijj4</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Tops</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3ed1nmkn9q0s34i3sd4rfqhs1j1pe6gcqjh6dssml85q5p5sgi</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/8748983/2019/4/5/1816baaf-b92c-44c2-8438-5e46019c1c581554463718482-Puma-Men-Red-Solid-SF-T7-Track-Jacket-5351554463717483-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/8973745/2019/6/17/f9fe3a91-97a5-4ff2-bb2c-01498f1cb6501560755447472-Reebok-Women-Taupe-Solid-WOR-Colourblocked-Tights-2031560755-1.jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>l5g37b98g6n17k76qhqg72maik07bmcicc6jj6d2q9746i5n4o</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>i54b7mkr597m1pg02kmc1hrjhg1080m9k1gb8ler41nnd1agqg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/1255608/2017/1/16/11484542323515-Columbia-Navy-Ascender-Softshell-Biker-Jacket-2921484542323486-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/productimage/2018/12/20/54436958-8535-4c1a-9226-2a2a0df9654a1545310207096-1.jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>547o8o6m0m9i3l26khsj33ggk6osshh3of6j8oddgdbo7rg609</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Jeans</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>nrc8noo31e4nap419no0mda7fno557k1sa0l0pb4c7e0m2hjec</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/8748971/2019/4/5/c168b792-d6bf-4fef-a627-3570d38c7f9b1554462449169-Puma-Men-Black-Solid-SF-T7-Track-Sweatshirt-2031554462447885-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/10259945/2019/7/23/c0047751-5876-4c76-8887-e6b3994238f81563862913823-Alcis-Women-Solid-Grey-Tracksuit-611563862912263-1.jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>46i9idmi6po5sh8n0brfen1m189q1in8100i7j4lk1mqmc26j1</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>cf47iin7f3m3q8al1pf8bspq3rkk7f55hpcpcn9mn95hiqpi5r</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/2528662/2019/2/16/56035385-1666-49f7-883f-13b7a2449b7e1550307702331-HRX-by-Hrithik-Roshan-Men-Black-Solid-Sporty-Jacket-34015503-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9621337/2019/6/13/db8c29ec-ea56-47bf-8fa9-b43656fa18571560410056508-Nike-Women-Black--White-Printed-Round-Neck-FORCE-FS-Sports-T-1.jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>j4hip9ghogsl0h4r28o58r8bpkigm410igmsjnqqf9eho8pr0q</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>sadsjd506no5120biis0mmjach5j4183lffq59ikoq5jiji82o</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/2136750/2017/10/3/11507019207507-Puma-Men-Black-Solid-Sporty-Jacket-1771507019207180-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2042109/2018/4/25/11524648490241-Nike-Women-Grey-NSW-GYM-VNTG-Tight-Fit-Capris-5111524648490023-1.jpg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>kri8mqcl7q7cj203nlab968obe7kdpjqiqo3g1bo08jamk0lfh</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Tops</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>fb32jp6o9g0662a75hsd42nqnds2h27lc048p4aop5ls3ekoo4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/2030841/2017/11/23/11511426924288-HRX-by-Hrithik-Roshan-Men-White-Solid-Windcheater-Sporty-Jacket-2101511426924176-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/8973923/2019/5/6/e29fa9ea-2260-4c6c-ae76-9b85418631321557123575705-Reebok-Women-Jackets-2491557123574528-1.jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fh9al8ecblihqmrsq04d3ppboho7345delgcp48bifhm7bl3h9</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Jackets</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>esd4npfeo442118sijsm27qo18qqr8s5nledmocl09qp35p36l</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/8748903/2019/4/8/5cad7908-6633-4cc0-8455-84605c6c6c9a1554725365561-Puma-Men-Grey-Slim-Fit-Solid-Tec-dryCell-Sporty-Jacket-39155-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/8972741/2019/5/6/6e9de5a8-bb8d-4f57-b079-e85616678f991557123315712-Reebok-Classic-Women-Tops-8761557123314850-1.jpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4ifal3abmo198ocbmhbfhhcm21f6iop3kag9qo6es77h9l86cb</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Suits</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>qrqh3j5721mdml3e6lsqaf8q9fjq873ap0nm46k7pkgfq0r47p</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/7422320/2018/11/13/9e8bff6b-c4ec-4f2f-8611-c1d3bad317b11542107801184-Wildcraft-Men-Teal-Blue-Trainer-Sporty-Jacket-84315421077992-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/2214281/2018/2/14/11518602601400-Mast--Harbour-Women-Off-White-Regular-Fit-Solid-Regular-Trousers-3411518602601282-1.jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4fgggpnd1gksi2iirp47qqmfbs74e20of3kesmalaiagfrbq49</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0pks4492bsm5l3k8ni39s2gklip0m3snbm1esar5glhkei9bd3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/productimage/2019/6/18/80d5b399-4827-4732-9783-f34bb1bdc6801560796850273-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/9274019/2019/4/12/42a50d15-9559-4aeb-9f8a-6b9f3d5051941555070830686-Da-Intimo-Women-White-5631555070829226-1.jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ifdoes5phsoa02nm4mj1hhk6c2bphjegbg17n9ip5mqjo28khe</t>
+          <t>Activewear</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Jumpsuits &amp; Playsuits</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>b7j8f8gon39iqkn1i500rnkijf113h5odhj30df06rjmkm8s12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>http://assets.myntassets.com/assets/images/7371537/2019/3/20/7d073882-4a7a-4cb7-a73d-e74151413e311553074058836-ADIDAS-Men-Jackets-2581553074057628-1.jpg</t>
+          <t>http://assets.myntassets.com/assets/images/7222906/2018/9/10/2d1be59a-9a3d-4b6d-a3b9-8fb5f04ba81d1536574881408-Rider-Republic-Women-Navy-Blue-Solid-Regular-Fit-Denim-Shorts-7631536574881248-1.jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>r3rqda19j9o91kjq394ej7bchdfohga6js90rjncogmjr320ni</t>
+          <t>Bottomwear</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Activewear</t>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>n8oo7hk5c38d17j0llgqrsjm3g3cf6dl0o9mk7qgndcisfpqj3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/1455261/2016/7/29/11469786200348-Lux-Lyra-Women-Leggings-1901469786200135-1.jpg</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Bottomwear</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9el4mj7i27jhf3ha9h5n4kjo0q01n8lne93qcpm9a48r70g9sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8620413/2019/1/31/5937db6c-a462-433c-98aa-80a134d83b181548934570669-Shree-Women-Dresses-2661548934569120-1.jpg</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Dresses</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Shorts</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>o418s3o6649a95g70l3fqppanek4sha4lao28r3887p79991hk</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/2405118/2018/2/5/11517823180868-FOREVER-21-Grey-Solid-Basic-Jumpsuit-2041517823180779-1.jpg</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Dungarees</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>cmoh9iqak9r8l1ishfc8oigfjjal3d2q16d88pkn8o6oh3lj70</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/1843139/2017/4/10/11491808038438-Lux-Lyra-SILK-Women-Leggings-5611491808038222-1.jpg</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>jgncngop01k04q46p20q2629jlp36ps3rdelqbga6ne9r51jik</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/9948633/2019/6/14/db43ad2a-0a02-4a62-bee6-d33512e3849b1560490705280-Aks-Maroon-flower-printed-dupatta-with-heavy-border-75315604-1.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Innerwear &amp; Sleepwear</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9r9q05q38k7olmeom3qfdr35ldnd9353mq00b6nqlhqj27n1n0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/1051466/2015/12/14/11450087716791-Rain--Rainbow-Purple-Printed-Long-Ethnic-Jacket-71450087713020-1.jpg</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>cm7dp9414pj9q267m6s9b5er8kc5s39b7e8j7fcmoa5jmr21es</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/6600896/2018/6/13/477a7cc5-ef37-49e6-a0f5-21d3f780379c1528892662762-AKS-Women-Maroon--Beige-Solid-Kurta-with-Trousers--Dupatta-4941528892662562-1.jpg</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Pants</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1bnkbdh6napph42imi85dkdj5spc8gm495nl58f2i27bmn9qje</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/6918939/2019/7/31/4554a84d-1877-443f-a0ce-fc8e7d7ff2211564578672884-W-Women-Pink--White-Printed-Wide-Leg-Palazzos-88156457867118-1.jpg</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2o3s7rchpionh9796fb26sfo2aeichggqk7c5mk6gmn985n961</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/5/16/704be078-2cd2-4931-a508-877496ea58371557995274213-1.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>sjmli9logs53al7rgqg1gi0hjfe0k6apm28ccrj3boaj84k83k</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8420401/2019/6/8/52212f80-c89c-4ac9-9ebf-e530359eb8f51559984710564-Printed-Band-Collar-Anarkali-With-Gather-Pocket-Detaila-Nd-3-1.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Plus Size</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>904f5j82p9bpsj90i55jf8e3onrkam2shp51p5qa8f5ilkl6qc</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/3/23/59921980-bdc2-42ec-ac4a-0b4d515693671553287483338-1.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Pants</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6amb4q9em47e4oc869qfa6o67sr7ackkch9ck75lp995943r6d</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/9942685/2019/6/27/6a194be5-abf8-4dc3-92ee-c93b2ed0c0071561639661765-The-Chennai-Silks-Pink-Solid-Pure-Silk-Saree-853156163966038-1.jpg</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>65bcsnmsjniha834lek4hp7a0hdpfbae9cmeenks8m4s6drgon</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/5361412/2018/8/8/c567fad8-c8c5-4e9f-a334-fc46ca9cc2c71533708093789-Moda-Rapido-Women-White--Blue-Printed-Maxi-Flared-Skirt-6971533708093609-1.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ethnicwear</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tops</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>gndklebp2q7le6se6e3nnqjjb1gc6io1ae804dlf608p603nj6</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/4656865/2018/5/16/96710266-4c0b-4d79-bdc6-01fd196a1b491526473068836-Roadster-Women-Jeans-2561526473067036-1.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Jeans</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7d9eg7ql89krkfsq5oqn5pfo8g0mb1d025d06a829e2aojh81c</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8276485/2019/1/25/20eb5a90-4dbf-4c69-84c2-e79130eb5d781548417751946-GAS-Women-Navy-Solid-Sumatra-Fit-Denim-Jeggings-838154841775-1.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Jeggings</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2ma3lh2sep7q98idlqcq1bg1jaj859pcfg3i6crl54oj0n2o1n</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8802231/2019/3/5/3516f5ce-bcb2-4a8e-b2e6-9199e52c63611551784748877-StyleStone-Womens-Green-Check-and-Dot-Print-Satin-Jumpsuit-3-1.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Jumpsuits &amp; Playsuits</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>kqjl33fk79gnjalqn4r95d5q6q52c0ofmfipsfob30h6dis5ls</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/3451691/2018/3/12/11520843929790-Rosaline-Soft-Cotton-Side-Panel-Lace-Bra--Skin-6811520843929658-1.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0m1bb612g0f86il0930b3apamdl63nh6eab4e50sk05s91ln8f</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8343467/2018/12/28/14190ef6-2abd-4ec6-b043-4c607df3d1d21545987712333-Floret-Women-Pack-of-2-Camisoles-_XXL-2661545987708370-1.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Shirts</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1k2qhe26l83fm04cee38e0nda89cjhbg5s2lichero60h78p98</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8343467/2018/12/28/14190ef6-2abd-4ec6-b043-4c607df3d1d21545987712333-Floret-Women-Pack-of-2-Camisoles-_XXL-2661545987708370-1.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Pants</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>k3jn36i2hg0h9hp6qiq1shm393scij5bahssjj6m44hlrgh7q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/7/4/d7cba392-ebe1-481f-807b-9567ce69704c1562221826841-1.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4fsbnnieb83hdckplqlqkf6p8opqbsgopherppn4c2dqjrnf00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/3/16/add6c206-67f9-4596-a440-19cc78a4b0781552732589169-1.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3ndcb2qip0dg8q6jbp375q4q3lk6q1o8cmrghk2qhhl8feo88q</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/6791098/2018/6/21/d01fc650-4e5b-4829-9a21-da450be9d5ea1529573671968-Claura-Women-Green--Black-Checked-Regular-Fit-Pyjama-Lower-12-9911529573671796-1.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Jackets</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>k3fels9rp6pkh1mp566gh1bhelhm9saf8nkni9sdqkn1c4gc7a</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/v1/images/style/properties/Softrose-Women-Pack-of-3-Boyshorts-SH7004PFC_b118e2fd0aa418d83a725aa62bd2a4b5_images.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>csncogdooi8339hn1ls085dra35k1oimlffpmimkkdbdkc33q6</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/9642523/2019/7/16/19723b33-ef35-4aa3-b5b0-34a7cab6ce711563258341845-Marks--Spencer-Women-Beige-Solid-Shapewear-T331101-959156325-1.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ahr2bhas2h6dn9fnhi34s37g36750acjjbfhcn2ofpi4m4mjm4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/7739849/2018/11/3/3f9806f8-cab2-48ec-8937-51a85fc673451541229191114-Golden-Girl-Women-White-Solid-Stockings-5521541229190932-1.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Lingerie and Sleepwear</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Plus Size</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>l558h0ehqohmcq0r33nd3kjpr432rkpnrd7l60elok7kprr5f9</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/1644141/2016/11/18/11479464046306-Belle-Fille-Women-Jackets-5741479464046076-1.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>k00a3bm94o3i8see1nqah5rdlssqbadlj0m4asc4k873g6n4m5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8172173/2018/12/11/819c14c7-27ed-4b08-a6d6-1c4645354e591544523109490-Sera-Printed-Long-shrug-7991544523106559-1.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Bottomwear</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9cg85e081pqjkc51bn95s6f7m57i2mj0loo4cbb83pkp3kj5sp</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/9478513/2019/7/11/88206c8d-5f20-4e50-9802-89e0661498831562845184457-Roadster-Women-Jackets-8031562845181668-1.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>jb1k67c9sshb7ge7g5kq33kgsj8bi44nb725nkkrfjopaaep5f</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/7666003/2018/12/4/7fb8cb9d-5386-442e-8013-e662d2a4ae8e1543924634406-Moda-Rapido-Women-Sweatshirts-2331543924633039-1.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Outerwear</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6119dp9eokf6a1gm5r8l46ocdn674aqbdaoc10cno0bk8jaej4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/9347405/2019/7/24/c20efb77-f70d-4aae-8634-4c3d23a47d871563967409673-MANGO-Women-Skirts-1941563967407573-1.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Skirts</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Shorts</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>n6c4ha5n97eb2iggikoi8560p722idnjloifd5kjomge4m2r2e</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/9259111/2019/6/20/84b1f9e8-7cd2-4168-b51f-4e1a0e1a18901561031614603-MANGO-Women-Beige--Black-Printed-Sarong-43055789-93315610316-1.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Swimwear</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Plus Size</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>cd0rbijab4ede78cr42e051gmio610o44f5map0aper4dm86cq</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/7/24/e8c08c90-fa35-4bd5-aca4-6b4303cd9b7d1563964197758-1.jpg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Swimwear</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6s7sln040noagnndonk55glda5o5nbajop5k3gjsco7ieaeo56</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/productimage/2019/5/27/f10f03e8-f525-4c6d-ba82-c8672a9f35691558948245826-1.jpg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Swimwear</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>q4008apdhhjl6esho5iql75a5nih9soof1rgs33oo14mba0dlq</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/1733765/2017/1/23/11485160444520-Miss-Chase-Black-Bodysuit--7251485160444269-1.jpg</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Tops</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>qc3a2ifj1bajolqps7448i026imsbd8ipfr0m5roieg8rb9g42</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8816803/2019/6/14/78598071-9ac7-4cb9-bbb1-1ce082ef2df41560496024277--Roadster-Women-Charcoal-Grey--White-Checked-Shirt-555156049-1.jpg</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Tops</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7gsf63i8r472fj08f00985jnpbgkae9am50d8qbaiprg3baob8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/8456255/2019/3/4/e8d8e258-906e-42cc-b37f-556bcb8fd48a1551691587410-ether-Women-Red-Solid-Round-Neck-T-shirt-9531551691585592-1.jpg</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>tops</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ethnic wear</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>c1ch3bq8r6nf330n27palh78l313p0o4qoeg808eh7iqgoq2pn</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>http://assets.myntassets.com/assets/images/1392395/2016/6/15/11465969079760-Pannkh-Women-Tops-5331465969079507-1.jpg</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Tops</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Activewear</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>17phn49qspegpr4mem728kinc5gcm4gsm6277n9nb2h0rlbcn3</t>
         </is>
       </c>
     </row>
